--- a/files/encuestas.xlsx
+++ b/files/encuestas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>NOMBRE</t>
+          <t>contact_name</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CELULAR</t>
+          <t>contact_phone</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -499,19 +499,47 @@
           <t>update test</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Encuesta 1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2225547275</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>CANCELED</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>693bbd42-82e6-4da8-a809-804be6d24f52</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-12-10T12:59:04.124702-06:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>COMPLAINT</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>contact_name 1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>contact_phone 1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
         </is>
       </c>
     </row>

--- a/files/encuestas.xlsx
+++ b/files/encuestas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>folio</t>
+          <t>FOLIO</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>slug</t>
+          <t>SLUG</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -470,6 +470,11 @@
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>contact_email</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ESTATUS</t>
         </is>
@@ -481,49 +486,58 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>b39ce150-669d-4a73-a6a2-0d0afbb445ae</t>
+          <t>36535e28-bd40-4929-aec4-e6fabc4f8689</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-12-04T21:41:10.893333-06:00</t>
+          <t>2024-12-11 15:36</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>complaint</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>update test</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>contact_name 1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>contact_phone 1</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>CANCELED</t>
+          <t>contact_email 1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>En proceso</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>693bbd42-82e6-4da8-a809-804be6d24f52</t>
+          <t>a2010de0-2bec-4e32-a1de-162f2952a974</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-12-10T12:59:04.124702-06:00</t>
+          <t>2024-12-11 18:59</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COMPLAINT</t>
+          <t>Queja</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -539,7 +553,2444 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>IN_PROGRESS</t>
+          <t>contact_email 1</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>54c7caa4-0710-4a9d-b897-bfad2d95c80d</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-12-11 19:16</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ed0495e3-2588-497e-96c1-ca7e8505e1e2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:13</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1496c905-cbef-42ca-a5a3-c09da66770f0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3a097907-fe89-4574-9298-c54e496aa014</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:20</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>a45dc07d-8f5a-404c-8f83-f57914bd2ed0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:20</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ce6fe81f-a9bb-4cbd-b9a8-eb78883c0413</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:23</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2599191e-e1d8-417c-b2b4-66e0727df577</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:25</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0da691d5-c51c-46a0-9881-b2de16594b88</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:28</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>9379df74-e99d-470a-b38b-a0461b74f132</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4334bf0a-fff2-4a62-8bd9-faa52898c4a3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-12-13 00:29</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>f1c8cf9f-95df-4430-9069-8a91a29096ae</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-12-13 00:29</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3512ebd9-2066-4956-86c3-d43fd963b7d1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-12-13 00:33</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>b142ea9c-11c0-4003-a76f-54c78af923b6</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-12-13 00:33</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>a532e2c2-f0a6-48ad-9f36-958397ad4579</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2024-12-13 00:34</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>e9ef81c3-3ddd-4520-987b-bf3a9e0fcc58</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024-12-13 00:45</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>78143794-e130-402d-a6d3-14fbcd978c4d</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2024-12-13 15:48</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>02706d20-9b74-4f1f-a742-ed6be991c8c1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2024-12-13 20:04</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Rocio</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>5656555555</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>xio@gmail.com</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>c9262d96-a254-4286-acd9-d0e3d8c036a2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024-12-13 20:57</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>bf1e6e6d-5550-4b18-9fd0-d62b721e5d65</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2024-12-13 20:58</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>23db95c3-484c-40e2-b121-681c9d799f14</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2024-12-13 21:12</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>a139f9dd-d7d8-4a2b-9ce4-ae09d3035cf0</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2024-12-13 21:14</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>84627de9-c03d-4f4b-afd1-581976ba7903</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2024-12-13 21:15</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>b7c193fa-7312-49b3-b3a6-b46c2e4ee98f</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2024-12-13 21:26</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>f2252ea7-7524-4fab-a9ce-bc0fd0c1060b</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2024-12-13 21:31</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>f0384d17-0b79-48f5-a220-2d29d77cad6d</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2024-12-13 21:48</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>josue</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>josue@gmail.com</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>14cae0f0-a480-4830-9a20-2231e18fb4e7</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2024-12-13 21:53</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>53549937-25dc-45f7-bf69-e9a1c99af55f</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2024-12-13 21:53</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>23a42ca0-52c6-460d-ac7a-499da4676886</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2024-12-13 21:55</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2da90e52-48b2-473b-b6a0-8391c7b07408</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:03</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>81f992f3-41b6-46de-a5bd-567eb5abe6e4</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:19</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ca469ab2-21ba-45db-ba13-90586e704eeb</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:20</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>53ad4bfd-5a88-4c0a-a13c-51d0afb58881</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:23</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>c4e6c698-8420-4ffc-b070-4d27fb2bcd96</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:24</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>49db0333-b067-4993-b574-f2e8e3a69650</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:30</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ff4ac958-861f-4300-badd-57f94297d1b7</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:30</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>470e046f-ecd8-43aa-a7c6-737848a77207</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:30</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>af9e38ea-ee64-44aa-9f40-9d17c21ae2f0</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:30</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>cd25e6aa-1a90-4a85-ae0c-c2b3e141f2b4</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:36</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2443c341-cffe-4a70-8b57-67110f23d3c1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:36</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ac8cbb53-7349-4665-a3c0-59d74c98c047</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:37</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>21a64d9a-f870-4eaa-b884-a524096f6ec6</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2024-12-13 23:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>d2c493ef-3851-4860-b71a-d9ba1ed1ec2e</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2024-12-13 23:10</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>41c7a3e2-5f75-4d6e-b595-f511c26c5465</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2024-12-13 23:13</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>b8a28840-9006-4ae4-8a78-00cd474c7299</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2024-12-14 00:08</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>3d9ed7e0-a96e-48a9-b018-c6b152e10cc3</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2024-12-14 00:08</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>d60b096a-1a19-4ac4-a058-540f463af34c</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2024-12-14 00:09</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>9e7c90be-9291-44a9-94dc-2478952d4000</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2024-12-17 01:03</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>cda77f80-f2c0-442d-85bd-cd297cfa2f51</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2024-12-17 01:05</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Estamos atentos a tus ideas y propuestas para seguir mejorando. Por favor</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>14a1d987-f172-4e09-bbca-1159989662a9</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2024-12-17 01:08</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Problema con el Servicio</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>josue</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>j@gmail.com</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>3f65f3c8-2d48-45ff-865c-03a6c93e36d9</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2024-12-17 01:08</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>d4a25820-99d7-4785-b9b6-b82a289503d3</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2024-12-18 20:35</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>calidad del producto</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>josue</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>58c68c2d-6256-48cf-bcb5-3fa401cf6e74</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2024-12-18 21:03</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>145b151c-e5ab-4836-8adf-6fd665992077</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2024-12-18 21:11</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ff4f8dd6-5602-4d56-b7e4-1ef6f31e59c4</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2024-12-18 21:22</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>3102eeb7-7de4-4e1b-bcc3-628e49c8ffb9</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2024-12-18 21:22</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>b93645fa-fe9b-4410-ba4b-d697022184d6</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2024-12-18 21:22</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>b74e0b6e-c666-4b8b-b1e2-1a0f97d3b2b1</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2024-12-19 02:28</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>jk</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>3b9c54c1-633b-45c2-a667-2cc4123c53c6</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2024-12-19 15:27</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Buen servicio</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>72b3e8be-d568-40bb-a5fc-6e4ef6a5e275</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2024-12-19 20:49</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>36e33444-e78b-47c4-988c-8a5956be5569</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2024-12-19 20:51</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>a08ac256-210e-40f6-bcb0-71ecc917f9cc</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2024-12-19 21:00</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>89f8a5fc-dfed-42ce-bfce-5fc3320abba1</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:32</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>47d0bbec-7bde-479d-ae0f-36178ebf40f8</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:46</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>8449a8b9-94f3-42c9-9c97-81d0f0eb293a</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:46</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>e06c8d2b-fd31-48e6-a25e-5cbcbeb05b72</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2024-12-19 23:15</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>746b921d-47e4-4825-a9dc-c34a287fa8d0</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2024-12-19 23:16</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>79c7e34e-f99f-4467-a67d-c1fbb6449240</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2024-12-20 01:06</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>86204458-0894-469e-98f6-0de0e9e4a3ad</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2024-12-20 01:06</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>d389ae68-cd9b-4111-8c9f-ca84ad4ee300</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2024-12-20 01:53</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>7ea126c2-c5c5-467c-aa2f-e54c28903e8e</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2024-12-20 14:33</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Prueba de felicitación</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>054b163c-80ae-4073-9b09-bbac6c44d530</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2024-12-20 14:34</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Prueba de sugerencia</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>a2850316-c868-4515-8044-0d08b4b5214d</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2024-12-20 16:26</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>9db76f02-d962-435e-b8f1-10800ce61747</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2024-12-20 16:27</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>d9fbd80c-8e54-49a1-a073-23878399a396</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2024-12-20 16:27</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1ff5246a-c015-474c-8339-2683b29b92bf</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2024-12-20 16:39</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>prueba</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>30492427-117e-43e6-9cb1-c231317c73cc</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2024-12-20 21:36</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0b650936-71e1-4c9d-b70f-4c0e697f9bd4</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2024-12-20 23:59</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>buen servicio</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0e68ea06-f0f3-41c1-b854-29ec46f9ce1c</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2024-12-21 00:06</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Prueba de queja</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Rocio Galaviz</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2223340115</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>xio.rgh@gmail.com</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>36fe829f-7ab3-4e63-9016-80f7f0b656fb</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2024-12-22 20:59</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Sello roto</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Kat</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>221338456</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>katy.rigshow@gmail.com</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>En proceso</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>357e1178-2d0b-48d3-867c-b1516ae2370e</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2024-12-30 14:51</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>todo bien</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>En proceso</t>
         </is>
       </c>
     </row>

--- a/files/encuestas.xlsx
+++ b/files/encuestas.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-12-11 15:36</t>
+          <t>2024-12-11 09:36</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-12-11 18:59</t>
+          <t>2024-12-11 12:59</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-12-11 19:16</t>
+          <t>2024-12-11 13:16</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-12-12 22:13</t>
+          <t>2024-12-12 16:13</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-12-12 22:15</t>
+          <t>2024-12-12 16:15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-12-12 22:20</t>
+          <t>2024-12-12 16:20</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-12-12 22:20</t>
+          <t>2024-12-12 16:20</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-12-12 22:23</t>
+          <t>2024-12-12 16:23</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-12-12 22:25</t>
+          <t>2024-12-12 16:25</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-12-12 22:28</t>
+          <t>2024-12-12 16:28</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-12-12 22:30</t>
+          <t>2024-12-12 16:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-12-13 00:29</t>
+          <t>2024-12-12 18:29</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-12-13 00:29</t>
+          <t>2024-12-12 18:29</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-12-13 00:33</t>
+          <t>2024-12-12 18:33</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-12-13 00:33</t>
+          <t>2024-12-12 18:33</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-12-13 00:34</t>
+          <t>2024-12-12 18:34</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-12-13 00:45</t>
+          <t>2024-12-12 18:45</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-12-13 15:48</t>
+          <t>2024-12-13 09:48</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-12-13 20:04</t>
+          <t>2024-12-13 14:04</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-12-13 20:57</t>
+          <t>2024-12-13 14:57</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-12-13 20:58</t>
+          <t>2024-12-13 14:58</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-12-13 21:12</t>
+          <t>2024-12-13 15:12</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-12-13 21:14</t>
+          <t>2024-12-13 15:14</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-12-13 21:15</t>
+          <t>2024-12-13 15:15</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2024-12-13 21:26</t>
+          <t>2024-12-13 15:26</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2024-12-13 21:31</t>
+          <t>2024-12-13 15:31</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2024-12-13 21:48</t>
+          <t>2024-12-13 15:48</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2024-12-13 21:53</t>
+          <t>2024-12-13 15:53</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2024-12-13 21:53</t>
+          <t>2024-12-13 15:53</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2024-12-13 21:55</t>
+          <t>2024-12-13 15:55</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2024-12-13 22:03</t>
+          <t>2024-12-13 16:03</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2024-12-13 22:19</t>
+          <t>2024-12-13 16:19</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2024-12-13 22:20</t>
+          <t>2024-12-13 16:20</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2024-12-13 22:23</t>
+          <t>2024-12-13 16:23</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2024-12-13 22:24</t>
+          <t>2024-12-13 16:24</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2024-12-13 22:30</t>
+          <t>2024-12-13 16:30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2024-12-13 22:30</t>
+          <t>2024-12-13 16:30</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2024-12-13 22:30</t>
+          <t>2024-12-13 16:30</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2024-12-13 22:30</t>
+          <t>2024-12-13 16:30</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2024-12-13 22:36</t>
+          <t>2024-12-13 16:36</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2024-12-13 22:36</t>
+          <t>2024-12-13 16:36</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2024-12-13 22:37</t>
+          <t>2024-12-13 16:37</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2024-12-13 23:00</t>
+          <t>2024-12-13 17:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2024-12-13 23:10</t>
+          <t>2024-12-13 17:10</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2024-12-13 23:13</t>
+          <t>2024-12-13 17:13</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2024-12-14 00:08</t>
+          <t>2024-12-13 18:08</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2024-12-14 00:08</t>
+          <t>2024-12-13 18:08</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2024-12-14 00:09</t>
+          <t>2024-12-13 18:09</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2024-12-17 01:03</t>
+          <t>2024-12-16 19:03</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2024-12-17 01:05</t>
+          <t>2024-12-16 19:05</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2024-12-17 01:08</t>
+          <t>2024-12-16 19:08</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2024-12-17 01:08</t>
+          <t>2024-12-16 19:08</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2024-12-18 20:35</t>
+          <t>2024-12-18 14:35</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2024-12-18 21:03</t>
+          <t>2024-12-18 15:03</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2024-12-18 21:11</t>
+          <t>2024-12-18 15:11</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2024-12-18 21:22</t>
+          <t>2024-12-18 15:22</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2024-12-18 21:22</t>
+          <t>2024-12-18 15:22</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2024-12-18 21:22</t>
+          <t>2024-12-18 15:22</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2249,7 +2249,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2024-12-19 02:28</t>
+          <t>2024-12-18 20:28</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2024-12-19 15:27</t>
+          <t>2024-12-19 09:27</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2024-12-19 20:49</t>
+          <t>2024-12-19 14:49</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2024-12-19 20:51</t>
+          <t>2024-12-19 14:51</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2024-12-19 21:00</t>
+          <t>2024-12-19 15:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2402,7 +2402,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2024-12-19 22:32</t>
+          <t>2024-12-19 16:32</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2024-12-19 22:46</t>
+          <t>2024-12-19 16:46</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2024-12-19 22:46</t>
+          <t>2024-12-19 16:46</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2024-12-19 23:15</t>
+          <t>2024-12-19 17:15</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2024-12-19 23:16</t>
+          <t>2024-12-19 17:16</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2024-12-20 01:06</t>
+          <t>2024-12-19 19:06</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2024-12-20 01:06</t>
+          <t>2024-12-19 19:06</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2024-12-20 01:53</t>
+          <t>2024-12-19 19:53</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2024-12-20 14:33</t>
+          <t>2024-12-20 08:33</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2024-12-20 14:34</t>
+          <t>2024-12-20 08:34</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2024-12-20 16:26</t>
+          <t>2024-12-20 10:26</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2024-12-20 16:27</t>
+          <t>2024-12-20 10:27</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2024-12-20 16:27</t>
+          <t>2024-12-20 10:27</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2024-12-20 16:39</t>
+          <t>2024-12-20 10:39</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2024-12-20 21:36</t>
+          <t>2024-12-20 15:36</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2024-12-20 23:59</t>
+          <t>2024-12-20 17:59</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2024-12-21 00:06</t>
+          <t>2024-12-20 18:06</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2024-12-22 20:59</t>
+          <t>2024-12-22 14:59</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2024-12-30 14:51</t>
+          <t>2024-12-30 08:51</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">

--- a/files/encuestas.xlsx
+++ b/files/encuestas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:L150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,2277 +451,3087 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>route</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>TIPO</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>DESCRIPCIÓN</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>contact_name</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>contact_phone</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>contact_email</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ESTATUS</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>date_status_to_cancelled</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>date_status_to_finalized</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Q10</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>36535e28-bd40-4929-aec4-e6fabc4f8689</t>
+          <t>ac8ff827-7f4a-49aa-b4fc-2ea769ffd097</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-12-11 09:36</t>
+          <t>2025-02-25 15:37</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>LAB-104</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Queja</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>contact_name 1</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>contact_phone 1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>contact_email 1</t>
-        </is>
-      </c>
+          <t>Lucia</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>luc@gmail.com</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>a2010de0-2bec-4e32-a1de-162f2952a974</t>
+          <t>ac734c42-b291-4b39-801b-5485d7b60f3b</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-12-11 12:59</t>
+          <t>2025-02-25 14:49</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Queja</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>contact_name 1</t>
+          <t>El sello venía roto</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>contact_phone 1</t>
+          <t>Lua</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>contact_email 1</t>
+          <t>5656565656</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>lua@gmail.com</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>54c7caa4-0710-4a9d-b897-bfad2d95c80d</t>
+          <t>cc8c8d2a-e784-4bc2-ae56-1163633ecf71</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-12-11 13:16</t>
+          <t>2025-02-25 14:49</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>problemas con el repartidor</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Rocio</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>roc_rep@gmail.com</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Q7</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ed0495e3-2588-497e-96c1-ca7e8505e1e2</t>
+          <t>1d32194e-2e48-4192-8aa7-4d7664faba38</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-12-12 16:13</t>
+          <t>2025-02-17 16:12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>SUR-29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>9808080980</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>t@gmail.com</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Q6</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1496c905-cbef-42ca-a5a3-c09da66770f0</t>
+          <t>820e009e-fcd5-40de-8957-654e9c919cdf</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-12-12 16:15</t>
+          <t>2025-02-11 16:43</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>test login</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>contact_name 1</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>contact_phone 1</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>contact_email 1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>F6</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3a097907-fe89-4574-9298-c54e496aa014</t>
+          <t>0b330852-e367-467a-9f2d-b917de0b6bdc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-12-12 16:20</t>
+          <t>2025-01-09 17:03</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Otras razones</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Ricardo</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2223495955</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>rich@gmail.com</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>F5</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>a45dc07d-8f5a-404c-8f83-f57914bd2ed0</t>
+          <t>88ca389b-c560-44a0-a26b-756e16757131</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-12-12 16:20</t>
+          <t>2025-01-09 17:02</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Calidad en el producto</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ce6fe81f-a9bb-4cbd-b9a8-eb78883c0413</t>
+          <t>a6078d8e-4d4d-413e-ad15-3c6b9f6a9a2b</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-12-12 16:23</t>
+          <t>2025-01-09 17:02</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Excelente servicio</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2599191e-e1d8-417c-b2b4-66e0727df577</t>
+          <t>84f8ceb9-916a-469f-a1d1-36d62424d9be</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-12-12 16:25</t>
+          <t>2025-01-09 17:01</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Sergio</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>serch@gmail.com</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0da691d5-c51c-46a0-9881-b2de16594b88</t>
+          <t>cfc3005e-3906-4143-bf59-77f1ef70a380</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-12-12 16:28</t>
+          <t>2025-01-09 17:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Otras razones</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Rita</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2589467868</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>prueba@gamil.vom</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9379df74-e99d-470a-b38b-a0461b74f132</t>
+          <t>ed83cc06-bdf5-4255-b947-e4e1ea3c8c8c</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-12-12 16:30</t>
+          <t>2025-01-09 16:58</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Calidad en el producto</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Caro</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>caro@gnail.vom</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4334bf0a-fff2-4a62-8bd9-faa52898c4a3</t>
+          <t>0c686b5c-4aa1-49ad-83cd-df127ae78129</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-12-12 18:29</t>
+          <t>2025-01-09 16:58</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Problemas con el servicio ambos</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Lidia</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>lidia@ganil.com</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>f1c8cf9f-95df-4430-9069-8a91a29096ae</t>
+          <t>fca9b701-7557-452c-9668-4b8485b40bc0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-12-12 18:29</t>
+          <t>2025-01-09 16:57</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Problemas con el servicio CC</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Oscar</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2411242496</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>osc@gmail.com</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3512ebd9-2066-4956-86c3-d43fd963b7d1</t>
+          <t>bfdae61f-3882-4650-9013-3deb18080104</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-12-12 18:33</t>
+          <t>2025-01-09 16:56</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Problemas con el servicio
+Repartidor</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Luciana</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>luc@gmail.com</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>F3</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>b142ea9c-11c0-4003-a76f-54c78af923b6</t>
+          <t>cefffae0-bfac-4182-8655-ab1c009e74e7</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-12-12 18:33</t>
+          <t>2025-01-09 16:23</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>F2</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>a532e2c2-f0a6-48ad-9f36-958397ad4579</t>
+          <t>e0581880-cf1e-452e-a917-df181cbd8cde</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-12-12 18:34</t>
+          <t>2025-01-09 15:43</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Felicitación 1</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>e9ef81c3-3ddd-4520-987b-bf3a9e0fcc58</t>
+          <t>7566d77e-8b2a-4538-a6b1-3ac8f101e80f</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-12-12 18:45</t>
+          <t>2025-01-09 15:37</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+          <t>LAB-105</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>78143794-e130-402d-a6d3-14fbcd978c4d</t>
+          <t>e955039c-0328-40ae-b1e4-2a1eea718037</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-12-13 09:48</t>
+          <t>2025-01-08 09:11</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+          <t>SUR-19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>buen servicio</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
+      <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>02706d20-9b74-4f1f-a742-ed6be991c8c1</t>
+          <t>0f5b230c-d500-4797-8285-95105994775d</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-12-13 14:04</t>
+          <t>2025-01-07 11:52</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Queja</t>
+          <t>No asignado</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Prueba</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Rocio</t>
-        </is>
-      </c>
+          <t>Sugerencia</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>5656555555</t>
+          <t>contact_name 1</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>xio@gmail.com</t>
+          <t>contact_phone 1</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>contact_email 1</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
+      <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>c9262d96-a254-4286-acd9-d0e3d8c036a2</t>
+          <t>1db44460-6a25-4dcb-b6cf-b340be278788</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-12-13 14:57</t>
+          <t>2025-01-07 11:51</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>contact_name 1</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>contact_phone 1</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>contact_email 1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>bf1e6e6d-5550-4b18-9fd0-d62b721e5d65</t>
+          <t>23918e51-14fb-4d9b-a9d5-dd01748ddd9e</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-12-13 14:58</t>
+          <t>2025-01-06 12:34</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Queja</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+          <t>NORTE-72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Excelente servicio y producto</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
+      <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>23db95c3-484c-40e2-b121-681c9d799f14</t>
+          <t>e80c0ac4-5b3f-4f6c-8fc9-fadeb83625fd</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-12-13 15:12</t>
+          <t>2025-01-06 12:24</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>SUR-41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Queja</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>El repartidor es muy grosero al llegar practicamente avienta los garrafones provocando
+que se rompan y tenga que llamar para que lo cambien, cuando yo necesito ya el agua</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Martha</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>mart@gmail.com</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>a139f9dd-d7d8-4a2b-9ce4-ae09d3035cf0</t>
+          <t>41368881-7440-4cfa-abfb-0651d85cf06e</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-12-13 15:14</t>
+          <t>2025-01-06 07:44</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>NORTE-9</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Queja</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>problema con el servicio | repartidor</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Mercedes</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>meche@gmail.com</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>FINISHED</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
+      <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>84627de9-c03d-4f4b-afd1-581976ba7903</t>
+          <t>2afc3246-68e2-48a2-8c71-21a1b8c1f91e</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-12-13 15:15</t>
+          <t>2025-01-06 07:43</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sugerencia</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>siempre me dejan garrafones rotos</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>FINISHED</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
+      <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>b7c193fa-7312-49b3-b3a6-b46c2e4ee98f</t>
+          <t>6e80461f-bd55-494a-afa6-b63f6260dc4b</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2024-12-13 15:26</t>
+          <t>2025-01-06 07:42</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Por favor avisen cuando vengan retrasados</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
+      <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>f2252ea7-7524-4fab-a9ce-bc0fd0c1060b</t>
+          <t>6e2c5881-28cc-42a7-bf66-ebfbac8f1ce9</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2024-12-13 15:31</t>
+          <t>2025-01-06 07:41</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>El agua es muy rica, felicidades</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>FINISHED</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>f0384d17-0b79-48f5-a220-2d29d77cad6d</t>
+          <t>b554afc0-f9b0-415c-ab9e-46c96ab3d8e6</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2024-12-13 15:48</t>
+          <t>2025-01-03 14:44</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Queja</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>josue</t>
-        </is>
-      </c>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>josue@gmail.com</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>En proceso</t>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>FINISHED</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2025-01-04T13:37:55.706116-06:00</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
+      <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>14cae0f0-a480-4830-9a20-2231e18fb4e7</t>
+          <t>4f18d7c3-1107-4b0b-8391-39b16bef48cf</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2024-12-13 15:53</t>
+          <t>2025-01-03 12:57</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Queja</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>prueba</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
+      <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>53549937-25dc-45f7-bf69-e9a1c99af55f</t>
+          <t>099df78c-8126-41c1-b919-be419c0c4356</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2024-12-13 15:53</t>
+          <t>2025-01-03 12:56</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+          <t>LAB-101</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
+      <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>23a42ca0-52c6-460d-ac7a-499da4676886</t>
+          <t>411e9c87-fea0-4222-94f0-11b1a094be70</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2024-12-13 15:55</t>
+          <t>2025-01-03 12:52</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+          <t>SUR-41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>prueba</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Marcela</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1234511555</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>En proceso</t>
+          <t>mar@gmail.com</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>FINISHED</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>2025-01-06T15:04:09.055018-06:00</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
-      </c>
+      <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2da90e52-48b2-473b-b6a0-8391c7b07408</t>
+          <t>a35761df-417d-4d32-8daf-18c0fc42fe21</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2024-12-13 16:03</t>
+          <t>2025-01-03 11:19</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Queja</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
+      <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>81f992f3-41b6-46de-a5bd-567eb5abe6e4</t>
+          <t>56d3dff2-f0d3-4635-a47a-03c20f39e5bf</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2024-12-13 16:19</t>
+          <t>2025-01-03 11:06</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Problema con el servicio</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>gfcgh</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2223340115</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>xio.rgh@gmail.com</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
-      </c>
+      <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ca469ab2-21ba-45db-ba13-90586e704eeb</t>
+          <t>f0817798-98f2-45f5-b677-6615280ceea8</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2024-12-13 16:20</t>
+          <t>2025-01-03 11:05</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Problema con la calidad del producto</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
-      </c>
+      <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>53ad4bfd-5a88-4c0a-a13c-51d0afb58881</t>
+          <t>b07ff43c-1765-4cc4-a683-38c56df80699</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2024-12-13 16:23</t>
+          <t>2025-01-03 11:01</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>calidad con el servicio</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>prueba</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>pr@gmail.com</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
-      </c>
+      <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>c4e6c698-8420-4ffc-b070-4d27fb2bcd96</t>
+          <t>3d12b588-9410-41b4-b273-c9e9694f7fd9</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2024-12-13 16:24</t>
+          <t>2025-01-03 10:53</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sugerencia</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Excelente servicio</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
-      </c>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>49db0333-b067-4993-b574-f2e8e3a69650</t>
+          <t>859aea8c-2d18-4ce1-89f7-6cee30f3559a</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2024-12-13 16:30</t>
+          <t>2025-01-03 10:50</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Elegi calidad en el producto</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
-      </c>
+      <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ff4ac958-861f-4300-badd-57f94297d1b7</t>
+          <t>ee8da3cc-e866-4905-9a24-04ef8552eb44</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2024-12-13 16:30</t>
+          <t>2025-01-03 10:33</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>otras razones</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>FINISHED</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>38</v>
-      </c>
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>470e046f-ecd8-43aa-a7c6-737848a77207</t>
+          <t>39939211-ca7d-4337-bb72-65b0fae1144f</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2024-12-13 16:30</t>
+          <t>2025-01-03 10:31</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Queja</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>problemas con la calidad del servicio</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>39</v>
-      </c>
+      <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>af9e38ea-ee64-44aa-9f40-9d17c21ae2f0</t>
+          <t>d0aa059c-73d7-412f-9ed6-14a46bd9f175</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2024-12-13 16:30</t>
+          <t>2025-01-03 10:30</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sugerencia</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>prueba de otras razones</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Martha Cervantes</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>5556489651</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>mart_cer@gmail.com</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
-      </c>
+      <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>cd25e6aa-1a90-4a85-ae0c-c2b3e141f2b4</t>
+          <t>a9562430-38e8-41ee-aa8b-54b7cca04aba</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2024-12-13 16:36</t>
+          <t>2025-01-03 10:17</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>41</v>
-      </c>
+      <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2443c341-cffe-4a70-8b57-67110f23d3c1</t>
+          <t>300e99fe-1cc1-4634-bedb-0c4bdb4a1d4c</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2024-12-13 16:36</t>
+          <t>2025-01-03 09:57</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sugerencia</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
-      </c>
+      <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ac8cbb53-7349-4665-a3c0-59d74c98c047</t>
+          <t>8f4a03aa-0053-42ce-a3a9-e87ece5c532a</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2024-12-13 16:37</t>
+          <t>2025-01-03 09:47</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Queja</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
-      </c>
+      <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>21a64d9a-f870-4eaa-b884-a524096f6ec6</t>
+          <t>75d31539-83fd-48ce-a3c3-8bdcc593f335</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2024-12-13 17:00</t>
+          <t>2025-01-03 09:44</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>44</v>
-      </c>
+      <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>d2c493ef-3851-4860-b71a-d9ba1ed1ec2e</t>
+          <t>e3e415d6-d46e-4aa0-a0db-557a4ec55c6a</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2024-12-13 17:10</t>
+          <t>2025-01-03 09:43</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>45</v>
-      </c>
+      <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>41c7a3e2-5f75-4d6e-b595-f511c26c5465</t>
+          <t>5fdd302d-980e-47f0-950b-d7af86a51abe</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2024-12-13 17:13</t>
+          <t>2025-01-03 09:43</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>46</v>
-      </c>
+      <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>b8a28840-9006-4ae4-8a78-00cd474c7299</t>
+          <t>f5f591d1-d08c-4027-8a16-0e43a5066dfe</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2024-12-13 18:08</t>
+          <t>2025-01-03 09:33</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sugerencia</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>47</v>
-      </c>
+      <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3d9ed7e0-a96e-48a9-b018-c6b152e10cc3</t>
+          <t>dbc45277-1b11-4f67-8eeb-45e9a24705e6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2024-12-13 18:08</t>
+          <t>2025-01-03 09:28</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>48</v>
-      </c>
+      <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>d60b096a-1a19-4ac4-a058-540f463af34c</t>
+          <t>5d92c882-78bb-4277-bd94-2b61d6f3afed</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2024-12-13 18:09</t>
+          <t>2025-01-03 09:24</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Queja</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>49</v>
-      </c>
+      <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>9e7c90be-9291-44a9-94dc-2478952d4000</t>
+          <t>99946259-ebf3-4e50-a188-75c27dfe0d2a</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2024-12-16 19:03</t>
+          <t>2025-01-03 09:22</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Felicitación</t>
+          <t>No asignado</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Felicitación</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
-      </c>
+      <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>cda77f80-f2c0-442d-85bd-cd297cfa2f51</t>
+          <t>597dd333-04b7-47c3-a92a-ad8a2a884d60</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2024-12-16 19:05</t>
+          <t>2025-01-03 09:04</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>Sugerencia</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Estamos atentos a tus ideas y propuestas para seguir mejorando. Por favor</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Todo bien</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
+      <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>14a1d987-f172-4e09-bbca-1159989662a9</t>
+          <t>6a047548-c0dd-4b4a-bf6c-3ef184698d46</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2024-12-16 19:08</t>
+          <t>2025-01-03 09:04</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Queja</t>
+          <t>No asignado</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Problema con el Servicio</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>josue</t>
-        </is>
-      </c>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>j@gmail.com</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
+      <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3f65f3c8-2d48-45ff-865c-03a6c93e36d9</t>
+          <t>bb159a22-ec36-408f-a30c-069f19ed7bff</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2024-12-16 19:08</t>
+          <t>2025-01-03 09:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Queja</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
+      <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>d4a25820-99d7-4785-b9b6-b82a289503d3</t>
+          <t>e0ad552e-d65e-4c42-8f9d-76c84ad5ece4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2024-12-18 14:35</t>
+          <t>2025-01-02 15:21</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>Queja</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>calidad del producto</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>josue</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+          <t>prueba de queja</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>daniel@gmail.com</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>FINISHED</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
+      <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>58c68c2d-6256-48cf-bcb5-3fa401cf6e74</t>
+          <t>03af8529-c620-4769-abec-6de660359e6d</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2024-12-18 15:03</t>
+          <t>2025-01-02 15:20</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Queja</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>hbhub</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
+      <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>145b151c-e5ab-4836-8adf-6fd665992077</t>
+          <t>0a8ebc2f-7059-48d8-81ac-a32ec8f89e3a</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2024-12-18 15:11</t>
+          <t>2025-01-02 13:48</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Queja</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>FINISHED</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
+      <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ff4f8dd6-5602-4d56-b7e4-1ef6f31e59c4</t>
+          <t>b51cc15e-eb3e-4336-b4e5-3ace36f2d40f</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2024-12-18 15:22</t>
+          <t>2025-01-02 11:15</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
+      <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3102eeb7-7de4-4e1b-bcc3-628e49c8ffb9</t>
+          <t>77870ca1-39d2-4ebd-aabb-622f6664a991</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2024-12-18 15:22</t>
+          <t>2025-01-02 10:25</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Queja</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>FINISHED</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
+      <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>b93645fa-fe9b-4410-ba4b-d697022184d6</t>
+          <t>f85e588f-5039-41b6-8df1-3af9fd537817</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2024-12-18 15:22</t>
+          <t>2025-01-02 10:21</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
+      <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>b74e0b6e-c666-4b8b-b1e2-1a0f97d3b2b1</t>
+          <t>9688cd58-5a75-4d63-a41d-cd3eee7750d8</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2024-12-18 20:28</t>
+          <t>2025-01-02 10:19</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Felicitación</t>
+          <t>No asignado</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>jk</t>
+          <t>Felicitación</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
+      <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3b9c54c1-633b-45c2-a667-2cc4123c53c6</t>
+          <t>7872e5d6-37d8-49d2-89c4-07efed071903</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2024-12-19 09:27</t>
+          <t>2025-01-02 10:17</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Felicitación</t>
+          <t>No asignado</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Buen servicio</t>
+          <t>Felicitación</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
+      <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>72b3e8be-d568-40bb-a5fc-6e4ef6a5e275</t>
+          <t>4face35d-26d6-457f-b5fc-4d8bac603f5d</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2024-12-19 14:49</t>
+          <t>2025-01-02 10:07</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>FINISHED</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
+      <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>36e33444-e78b-47c4-988c-8a5956be5569</t>
+          <t>3ad4e372-08eb-45d6-87f8-1e73bdd2b783</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2024-12-19 14:51</t>
+          <t>2025-01-02 10:05</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>FINISHED</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
+      <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>a08ac256-210e-40f6-bcb0-71ecc917f9cc</t>
+          <t>0aa61cd1-b40b-4431-9fc8-28cd60d49ea4</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2024-12-19 15:00</t>
+          <t>2025-01-02 10:05</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
+      <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>89f8a5fc-dfed-42ce-bfce-5fc3320abba1</t>
+          <t>2e712786-bb69-4880-87a3-0a9217cb1b8c</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2024-12-19 16:32</t>
+          <t>2025-01-02 10:05</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
+      <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>47d0bbec-7bde-479d-ae0f-36178ebf40f8</t>
+          <t>1e2eb5ef-a09c-4d0b-b3e9-68f5159ed25b</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2024-12-19 16:46</t>
+          <t>2025-01-02 09:52</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Prueba de estatus</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>5555555555</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>CANCELED</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
+      <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>8449a8b9-94f3-42c9-9c97-81d0f0eb293a</t>
+          <t>d805657c-6d0e-44e9-a864-37943cb0661d</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2024-12-19 16:46</t>
+          <t>2025-01-02 09:48</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Rocio Galaviz Huerta</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2223340115</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>xio.rgh@gmail.com</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
+      <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
-          <t>e06c8d2b-fd31-48e6-a25e-5cbcbeb05b72</t>
+          <t>3e79949d-9799-4c45-85d5-cde0ae1ece2b</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2024-12-19 17:15</t>
+          <t>2024-12-30 14:16</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Sugerencia</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Llego el repartidor 6:30 cuando en call center me dijeron que llegarian desde las 2, aun cuando llegaron tarde fueron muy grotescos, no quisieron meter los garrafones a mi casa como siempre solo los dejaron en la entrada y comentaron que ya iban tarde.
+Ya se habían ido cuando note que uno de los dos garrafones que me dejaron estaba roto</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Margarita Durán</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>5556366666</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>mago@gmail.com</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
+      <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>746b921d-47e4-4825-a9dc-c34a287fa8d0</t>
+          <t>357e1178-2d0b-48d3-867c-b1516ae2370e</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2024-12-19 17:16</t>
+          <t>2024-12-30 08:51</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>todo bien</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
+      <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>79c7e34e-f99f-4467-a67d-c1fbb6449240</t>
+          <t>36fe829f-7ab3-4e63-9016-80f7f0b656fb</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2024-12-19 19:06</t>
+          <t>2024-12-22 14:59</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sello roto</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Kat</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>221338456</t>
+        </is>
+      </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>katy.rigshow@gmail.com</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
+      <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>86204458-0894-469e-98f6-0de0e9e4a3ad</t>
+          <t>0e68ea06-f0f3-41c1-b854-29ec46f9ce1c</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2024-12-19 19:06</t>
+          <t>2024-12-20 18:06</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Prueba de queja</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Rocio Galaviz</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2223340115</t>
+        </is>
+      </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>xio.rgh@gmail.com</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
+      <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>d389ae68-cd9b-4111-8c9f-ca84ad4ee300</t>
+          <t>0b650936-71e1-4c9d-b70f-4c0e697f9bd4</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2024-12-19 19:53</t>
+          <t>2024-12-20 17:59</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>buen servicio</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
+      <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7ea126c2-c5c5-467c-aa2f-e54c28903e8e</t>
+          <t>30492427-117e-43e6-9cb1-c231317c73cc</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2024-12-20 08:33</t>
+          <t>2024-12-20 15:36</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Felicitación</t>
+          <t>No asignado</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Prueba de felicitación</t>
+          <t>Felicitación</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
+      <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
-          <t>054b163c-80ae-4073-9b09-bbac6c44d530</t>
+          <t>1ff5246a-c015-474c-8339-2683b29b92bf</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2024-12-20 08:34</t>
+          <t>2024-12-20 10:39</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Sugerencia</t>
+          <t>No asignado</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Prueba de sugerencia</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>prueba</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
+      <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr">
         <is>
-          <t>a2850316-c868-4515-8044-0d08b4b5214d</t>
+          <t>d9fbd80c-8e54-49a1-a073-23878399a396</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2024-12-20 10:26</t>
+          <t>2024-12-20 10:27</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
+      <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr">
         <is>
           <t>9db76f02-d962-435e-b8f1-10800ce61747</t>
@@ -2734,265 +3544,2633 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
+      <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr">
         <is>
-          <t>d9fbd80c-8e54-49a1-a073-23878399a396</t>
+          <t>a2850316-c868-4515-8044-0d08b4b5214d</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2024-12-20 10:27</t>
+          <t>2024-12-20 10:26</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
+      <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1ff5246a-c015-474c-8339-2683b29b92bf</t>
+          <t>054b163c-80ae-4073-9b09-bbac6c44d530</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2024-12-20 10:39</t>
+          <t>2024-12-20 08:34</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Felicitación</t>
+          <t>No asignado</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>prueba</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr"/>
+          <t>Sugerencia</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Prueba de sugerencia</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
+      <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr">
         <is>
-          <t>30492427-117e-43e6-9cb1-c231317c73cc</t>
+          <t>7ea126c2-c5c5-467c-aa2f-e54c28903e8e</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2024-12-20 15:36</t>
+          <t>2024-12-20 08:33</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Felicitación</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Prueba de felicitación</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
+      <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0b650936-71e1-4c9d-b70f-4c0e697f9bd4</t>
+          <t>d389ae68-cd9b-4111-8c9f-ca84ad4ee300</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2024-12-20 17:59</t>
+          <t>2024-12-19 19:53</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Felicitación</t>
+          <t>No asignado</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>buen servicio</t>
+          <t>Felicitación</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
+      <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0e68ea06-f0f3-41c1-b854-29ec46f9ce1c</t>
+          <t>86204458-0894-469e-98f6-0de0e9e4a3ad</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2024-12-20 18:06</t>
+          <t>2024-12-19 19:06</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Queja</t>
+          <t>No asignado</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Prueba de queja</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Rocio Galaviz</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>2223340115</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>xio.rgh@gmail.com</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>81</v>
-      </c>
+      <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr">
         <is>
-          <t>36fe829f-7ab3-4e63-9016-80f7f0b656fb</t>
+          <t>79c7e34e-f99f-4467-a67d-c1fbb6449240</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2024-12-22 14:59</t>
+          <t>2024-12-19 19:06</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Queja</t>
+          <t>No asignado</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sello roto</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Kat</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>221338456</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>katy.rigshow@gmail.com</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>82</v>
-      </c>
+      <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
-          <t>357e1178-2d0b-48d3-867c-b1516ae2370e</t>
+          <t>746b921d-47e4-4825-a9dc-c34a287fa8d0</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2024-12-30 08:51</t>
+          <t>2024-12-19 17:16</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Felicitación</t>
+          <t>No asignado</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>todo bien</t>
+          <t>Felicitación</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>En proceso</t>
-        </is>
-      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>e06c8d2b-fd31-48e6-a25e-5cbcbeb05b72</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2024-12-19 17:15</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>8449a8b9-94f3-42c9-9c97-81d0f0eb293a</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2024-12-19 16:46</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>47d0bbec-7bde-479d-ae0f-36178ebf40f8</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2024-12-19 16:46</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>89f8a5fc-dfed-42ce-bfce-5fc3320abba1</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2024-12-19 16:32</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>a08ac256-210e-40f6-bcb0-71ecc917f9cc</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2024-12-19 15:00</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>36e33444-e78b-47c4-988c-8a5956be5569</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2024-12-19 14:51</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>72b3e8be-d568-40bb-a5fc-6e4ef6a5e275</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2024-12-19 14:49</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>3b9c54c1-633b-45c2-a667-2cc4123c53c6</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2024-12-19 09:27</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Buen servicio</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>b74e0b6e-c666-4b8b-b1e2-1a0f97d3b2b1</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2024-12-18 20:28</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>jk</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>b93645fa-fe9b-4410-ba4b-d697022184d6</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2024-12-18 15:22</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>3102eeb7-7de4-4e1b-bcc3-628e49c8ffb9</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2024-12-18 15:22</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ff4f8dd6-5602-4d56-b7e4-1ef6f31e59c4</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2024-12-18 15:22</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>145b151c-e5ab-4836-8adf-6fd665992077</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2024-12-18 15:11</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>58c68c2d-6256-48cf-bcb5-3fa401cf6e74</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2024-12-18 15:03</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>d4a25820-99d7-4785-b9b6-b82a289503d3</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2024-12-18 14:35</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>calidad del producto</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>josue</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>3f65f3c8-2d48-45ff-865c-03a6c93e36d9</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2024-12-16 19:08</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>14a1d987-f172-4e09-bbca-1159989662a9</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2024-12-16 19:08</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Problema con el Servicio</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>josue</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>j@gmail.com</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>cda77f80-f2c0-442d-85bd-cd297cfa2f51</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2024-12-16 19:05</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Estamos atentos a tus ideas y propuestas para seguir mejorando. Por favor</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>9e7c90be-9291-44a9-94dc-2478952d4000</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2024-12-16 19:03</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>d60b096a-1a19-4ac4-a058-540f463af34c</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2024-12-13 18:09</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>3d9ed7e0-a96e-48a9-b018-c6b152e10cc3</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2024-12-13 18:08</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>b8a28840-9006-4ae4-8a78-00cd474c7299</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2024-12-13 18:08</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>41c7a3e2-5f75-4d6e-b595-f511c26c5465</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2024-12-13 17:13</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>d2c493ef-3851-4860-b71a-d9ba1ed1ec2e</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2024-12-13 17:10</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>21a64d9a-f870-4eaa-b884-a524096f6ec6</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2024-12-13 17:00</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ac8cbb53-7349-4665-a3c0-59d74c98c047</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2024-12-13 16:37</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2443c341-cffe-4a70-8b57-67110f23d3c1</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2024-12-13 16:36</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>cd25e6aa-1a90-4a85-ae0c-c2b3e141f2b4</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2024-12-13 16:36</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>af9e38ea-ee64-44aa-9f40-9d17c21ae2f0</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2024-12-13 16:30</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>470e046f-ecd8-43aa-a7c6-737848a77207</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2024-12-13 16:30</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ff4ac958-861f-4300-badd-57f94297d1b7</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2024-12-13 16:30</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>49db0333-b067-4993-b574-f2e8e3a69650</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2024-12-13 16:30</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>c4e6c698-8420-4ffc-b070-4d27fb2bcd96</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2024-12-13 16:24</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>53ad4bfd-5a88-4c0a-a13c-51d0afb58881</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2024-12-13 16:23</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>ca469ab2-21ba-45db-ba13-90586e704eeb</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2024-12-13 16:20</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>81f992f3-41b6-46de-a5bd-567eb5abe6e4</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2024-12-13 16:19</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2da90e52-48b2-473b-b6a0-8391c7b07408</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2024-12-13 16:03</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>23a42ca0-52c6-460d-ac7a-499da4676886</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2024-12-13 15:55</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr"/>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>53549937-25dc-45f7-bf69-e9a1c99af55f</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2024-12-13 15:53</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr"/>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>14cae0f0-a480-4830-9a20-2231e18fb4e7</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2024-12-13 15:53</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr"/>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>f0384d17-0b79-48f5-a220-2d29d77cad6d</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2024-12-13 15:48</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>josue</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>josue@gmail.com</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>f2252ea7-7524-4fab-a9ce-bc0fd0c1060b</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2024-12-13 15:31</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr"/>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>b7c193fa-7312-49b3-b3a6-b46c2e4ee98f</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2024-12-13 15:26</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>84627de9-c03d-4f4b-afd1-581976ba7903</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2024-12-13 15:15</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Sugerencia</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr"/>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>a139f9dd-d7d8-4a2b-9ce4-ae09d3035cf0</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2024-12-13 15:14</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr"/>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>23db95c3-484c-40e2-b121-681c9d799f14</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2024-12-13 15:12</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr"/>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>bf1e6e6d-5550-4b18-9fd0-d62b721e5d65</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2024-12-13 14:58</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr"/>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>c9262d96-a254-4286-acd9-d0e3d8c036a2</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2024-12-13 14:57</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>02706d20-9b74-4f1f-a742-ed6be991c8c1</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2024-12-13 14:04</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Rocio</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>5656555555</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>xio@gmail.com</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr"/>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>78143794-e130-402d-a6d3-14fbcd978c4d</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2024-12-13 09:48</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr"/>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>e9ef81c3-3ddd-4520-987b-bf3a9e0fcc58</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2024-12-12 18:45</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>a532e2c2-f0a6-48ad-9f36-958397ad4579</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2024-12-12 18:34</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr"/>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>b142ea9c-11c0-4003-a76f-54c78af923b6</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2024-12-12 18:33</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr"/>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>3512ebd9-2066-4956-86c3-d43fd963b7d1</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2024-12-12 18:33</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr"/>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>f1c8cf9f-95df-4430-9069-8a91a29096ae</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2024-12-12 18:29</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr"/>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>4334bf0a-fff2-4a62-8bd9-faa52898c4a3</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2024-12-12 18:29</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr"/>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>9379df74-e99d-470a-b38b-a0461b74f132</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2024-12-12 16:30</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr"/>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>0da691d5-c51c-46a0-9881-b2de16594b88</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2024-12-12 16:28</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr"/>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2599191e-e1d8-417c-b2b4-66e0727df577</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2024-12-12 16:25</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr"/>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ce6fe81f-a9bb-4cbd-b9a8-eb78883c0413</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2024-12-12 16:23</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr"/>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>a45dc07d-8f5a-404c-8f83-f57914bd2ed0</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2024-12-12 16:20</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr"/>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>3a097907-fe89-4574-9298-c54e496aa014</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2024-12-12 16:20</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr"/>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1496c905-cbef-42ca-a5a3-c09da66770f0</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2024-12-12 16:15</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr"/>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ed0495e3-2588-497e-96c1-ca7e8505e1e2</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2024-12-12 16:13</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>54c7caa4-0710-4a9d-b897-bfad2d95c80d</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2024-12-11 13:16</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Felicitación</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>a2010de0-2bec-4e32-a1de-162f2952a974</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2024-12-11 12:59</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>contact_name 1</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>contact_phone 1</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>contact_email 1</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr"/>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>36535e28-bd40-4929-aec4-e6fabc4f8689</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2024-12-11 09:36</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>No asignado</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Queja</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>contact_name 1</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>contact_phone 1</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>contact_email 1</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>IN_PROGRESS</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
